--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P15NEC129 - EQUIPO TUTOR COLLES.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P15NEC129 - EQUIPO TUTOR COLLES.xlsx
@@ -1,35 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9B3500-8CDA-449E-8AFF-73CEA4887F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6130"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Asus</author>
   </authors>
   <commentList>
-    <comment ref="E7" authorId="0" shapeId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -54,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -79,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -125,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>REGISTRO DE NOTA DE ENTREGA</t>
   </si>
@@ -202,74 +214,80 @@
     <t>DESCARGO</t>
   </si>
   <si>
-    <t xml:space="preserve">SMALL CLAMP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMALL CLAMP DELUXE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DYNAMIC WRIST EXTERNAL FIXATOR </t>
-  </si>
-  <si>
     <t>Q.1031</t>
   </si>
   <si>
-    <t xml:space="preserve">FIXATOR DISPOSABLE </t>
-  </si>
-  <si>
-    <t>F08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARRAS 15CM ACERO </t>
-  </si>
-  <si>
-    <t>BARRAS 20 CM ACERO</t>
-  </si>
-  <si>
-    <t>BARRAS 20 CM CARBONO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHANZ 2.5 </t>
-  </si>
-  <si>
-    <t>SHANZ 3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHANZ 3.5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">INSTRUMETAL </t>
-  </si>
-  <si>
-    <t>GUIA DOBLE</t>
-  </si>
-  <si>
     <t>LLAVE 7</t>
   </si>
   <si>
     <t xml:space="preserve">LLAVE 8 </t>
   </si>
   <si>
-    <t xml:space="preserve">LLAVE 14 </t>
-  </si>
-  <si>
     <t xml:space="preserve">LLAVE EN T GRANDE </t>
   </si>
   <si>
     <t xml:space="preserve">LLAVE EN T PEQUENA </t>
   </si>
   <si>
-    <t>220.00</t>
+    <t xml:space="preserve">FIJADOR EXTERNO CON DISTRACCION TIPO A </t>
+  </si>
+  <si>
+    <t>MINI ROTULA BARRA - PIN 4.0*2.5MM</t>
+  </si>
+  <si>
+    <t>MINI ROTULA BARRA - PIN 4.0*2.5MM SMALL</t>
+  </si>
+  <si>
+    <t>MINI BARRA ACERO 4.0MM*200</t>
+  </si>
+  <si>
+    <t>MINI BARRA ACERO 4.0MM*150</t>
+  </si>
+  <si>
+    <t>MINI BARRA CARBONO  4.0MM*200</t>
+  </si>
+  <si>
+    <t>CLAVO DE SHANZ 3.5*70MM</t>
+  </si>
+  <si>
+    <t>MINI BARRA ACERO 2.0MM*100</t>
+  </si>
+  <si>
+    <t>CLAVO DE SHANZ 3.0*100MM</t>
+  </si>
+  <si>
+    <t>CLAVO DE SHANZ 2.4*100MM</t>
+  </si>
+  <si>
+    <t>CLAVO DE SHANZ 2.0*80MM</t>
+  </si>
+  <si>
+    <t>CLAVO DE SHANZ 3.0*80MM</t>
+  </si>
+  <si>
+    <t>A10383</t>
+  </si>
+  <si>
+    <t>CLAVO DE SHANZ 2.5*60MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSTRUMETAL MINI TUTOR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUIA PIN/SCHANZ DOBLE </t>
+  </si>
+  <si>
+    <t>PINES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,16 +407,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -430,7 +439,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -589,59 +598,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -664,12 +669,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -704,29 +703,75 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1052,455 +1097,523 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" customWidth="1"/>
-    <col min="3" max="3" width="46.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.36328125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="52" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="11" t="s">
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17" t="s">
+      <c r="E4" s="36"/>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.4">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
+      <c r="E5" s="38"/>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="20" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-    </row>
-    <row r="9" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="26"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="27" t="s">
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="25" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="30"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-    </row>
-    <row r="13" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="25" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="29"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-    </row>
-    <row r="15" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A15" s="20" t="s">
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="25" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="32"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="20" t="s">
+      <c r="E15" s="20"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-    </row>
-    <row r="19" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A19" s="20" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="25" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="32"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="20" t="s">
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="37"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-    </row>
-    <row r="23" spans="1:5" ht="20" x14ac:dyDescent="0.35">
-      <c r="A23" s="40" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+    </row>
+    <row r="23" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.5">
-      <c r="A24" s="41">
-        <v>213001</v>
+    <row r="24" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="B24" s="42"/>
       <c r="C24" s="43" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D24" s="44">
+        <v>2</v>
+      </c>
+      <c r="E24" s="46"/>
+    </row>
+    <row r="25" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="47">
+        <v>213.001</v>
+      </c>
+      <c r="B25" s="43">
+        <v>1293</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="44">
         <v>10</v>
       </c>
-      <c r="E24" s="42"/>
-    </row>
-    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.5">
-      <c r="A25" s="45">
-        <v>213003</v>
-      </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="44">
+      <c r="E25" s="46"/>
+    </row>
+    <row r="26" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="44">
+        <v>213.00299999999999</v>
+      </c>
+      <c r="B26" s="43">
+        <v>10527</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="44">
         <v>12</v>
       </c>
-      <c r="E25" s="42"/>
-    </row>
-    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.5">
-      <c r="A26" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="44">
-        <v>2</v>
-      </c>
-      <c r="E26" s="42"/>
-    </row>
-    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.5">
-      <c r="A27" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="46" t="s">
-        <v>29</v>
+      <c r="E26" s="46"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="48">
+        <v>1293</v>
+      </c>
+      <c r="B27" s="43">
+        <v>2119</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>33</v>
       </c>
       <c r="D27" s="44">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E27" s="42"/>
     </row>
-    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.5">
-      <c r="A28" s="43">
-        <v>155</v>
-      </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="46" t="s">
-        <v>31</v>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="48">
+        <v>1293</v>
+      </c>
+      <c r="B28" s="43">
+        <v>2119</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>34</v>
       </c>
       <c r="D28" s="44">
         <v>6</v>
       </c>
       <c r="E28" s="42"/>
     </row>
-    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.5">
-      <c r="A29" s="43">
-        <v>220</v>
-      </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="46" t="s">
-        <v>32</v>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="48">
+        <v>1293</v>
+      </c>
+      <c r="B29" s="43">
+        <v>2119</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>37</v>
       </c>
       <c r="D29" s="44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E29" s="42"/>
     </row>
-    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.5">
-      <c r="A30" s="43" t="s">
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="44">
+        <v>1023</v>
+      </c>
+      <c r="B30" s="43">
+        <v>16050200</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="44">
+        <v>4</v>
+      </c>
+      <c r="E30" s="42"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="43">
+        <v>3570</v>
+      </c>
+      <c r="B31" s="43">
+        <v>220060181</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="44">
+        <v>7</v>
+      </c>
+      <c r="E31" s="42"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="43">
+        <v>30100</v>
+      </c>
+      <c r="B32" s="43">
+        <v>70933</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="44">
+        <v>1</v>
+      </c>
+      <c r="E32" s="42"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="43">
+        <v>24100</v>
+      </c>
+      <c r="B33" s="43">
+        <v>160930</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="44">
+        <v>11</v>
+      </c>
+      <c r="E33" s="42"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="43">
+        <v>3080</v>
+      </c>
+      <c r="B34" s="43">
+        <v>10042</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="44">
+        <v>3</v>
+      </c>
+      <c r="E34" s="42"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="43">
+        <v>2080</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="44">
+        <v>2</v>
+      </c>
+      <c r="E35" s="42"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="43">
+        <v>2560</v>
+      </c>
+      <c r="B36" s="43">
+        <v>220030091</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="43">
+        <v>8</v>
+      </c>
+      <c r="E36" s="42"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="49"/>
+      <c r="B40" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="44">
-        <v>3</v>
-      </c>
-      <c r="E30" s="42"/>
-    </row>
-    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.5">
-      <c r="A31" s="43">
-        <v>225</v>
-      </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="44">
-        <v>10</v>
-      </c>
-      <c r="E31" s="42"/>
-    </row>
-    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.5">
-      <c r="A32" s="43">
-        <v>300</v>
-      </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="44">
-        <v>20</v>
-      </c>
-      <c r="E32" s="42"/>
-    </row>
-    <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.5">
-      <c r="A33" s="43">
-        <v>335</v>
-      </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="44">
-        <v>7</v>
-      </c>
-      <c r="E33" s="42"/>
-    </row>
-    <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.5">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-    </row>
-    <row r="35" spans="1:5" ht="21" x14ac:dyDescent="0.5">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-    </row>
-    <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.5">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42">
+      <c r="C40" s="51"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="49"/>
+      <c r="B41" s="43">
         <v>1</v>
       </c>
-      <c r="C36" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-    </row>
-    <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.5">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42">
+      <c r="C41" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="49"/>
+      <c r="B42" s="43">
         <v>2</v>
       </c>
-      <c r="C37" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-    </row>
-    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.5">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42">
-        <v>3</v>
-      </c>
-      <c r="C38" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-    </row>
-    <row r="39" spans="1:5" ht="21" x14ac:dyDescent="0.5">
-      <c r="A39" s="42"/>
-      <c r="B39" s="42">
+      <c r="C42" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="49"/>
+      <c r="B43" s="43">
+        <v>4</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="49"/>
+      <c r="B44" s="43">
         <v>1</v>
       </c>
-      <c r="C39" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-    </row>
-    <row r="40" spans="1:5" ht="21" x14ac:dyDescent="0.5">
-      <c r="A40" s="42"/>
-      <c r="B40" s="42">
-        <v>1</v>
-      </c>
-      <c r="C40" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-    </row>
-    <row r="41" spans="1:5" ht="21" x14ac:dyDescent="0.5">
-      <c r="A41" s="42"/>
-      <c r="B41" s="42">
+      <c r="C44" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="49"/>
+      <c r="B45" s="43">
         <v>2</v>
       </c>
-      <c r="C41" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-    </row>
-    <row r="42" spans="1:5" ht="21" x14ac:dyDescent="0.5">
-      <c r="A42" s="42"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
+      <c r="C45" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="49"/>
+      <c r="B46" s="43">
+        <v>4</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="49"/>
+      <c r="B47" s="45">
+        <f>SUM(B41:B46)</f>
+        <v>14</v>
+      </c>
+      <c r="C47" s="42"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="49"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A11:B11"/>
   </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
